--- a/charts/p10/template/ppt/embeddings/Microsoft_Office_Excel_Binary_Worksheet9.xlsx
+++ b/charts/p10/template/ppt/embeddings/Microsoft_Office_Excel_Binary_Worksheet9.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chart9-final" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,382 +422,458 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>20301</v>
-      </c>
-      <c r="B1" t="n">
-        <v>20302</v>
-      </c>
-      <c r="C1" t="n">
-        <v>20303</v>
-      </c>
-      <c r="D1" t="n">
-        <v>20304</v>
-      </c>
-      <c r="E1" t="n">
-        <v>20305</v>
-      </c>
-      <c r="F1" t="n">
-        <v>20306</v>
-      </c>
-      <c r="G1" t="n">
-        <v>20307</v>
-      </c>
-      <c r="H1" t="n">
-        <v>20308</v>
-      </c>
-      <c r="I1" t="n">
-        <v>20309</v>
-      </c>
-      <c r="J1" t="n">
-        <v>20310</v>
-      </c>
-      <c r="K1" t="n">
-        <v>20311</v>
-      </c>
-      <c r="L1" t="n">
-        <v>20312</v>
-      </c>
-      <c r="M1" t="n">
-        <v>20313</v>
-      </c>
-      <c r="N1" t="n">
-        <v>20314</v>
-      </c>
-      <c r="O1" t="n">
-        <v>20315</v>
-      </c>
-      <c r="P1" t="n">
-        <v>20316</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>20317</v>
-      </c>
-      <c r="R1" t="n">
-        <v>20318</v>
-      </c>
-      <c r="S1" t="n">
-        <v>20319</v>
-      </c>
-      <c r="T1" t="n">
-        <v>20320</v>
-      </c>
-      <c r="U1" t="n">
-        <v>20321</v>
-      </c>
-      <c r="V1" t="n">
-        <v>20322</v>
-      </c>
-      <c r="W1" t="n">
-        <v>20323</v>
-      </c>
-      <c r="X1" t="n">
-        <v>20324</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>20325</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>20326</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>20327</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>20328</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>20329</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>20330</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>20331</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>46.3</v>
       </c>
-      <c r="B2" t="n">
-        <v>39.5</v>
-      </c>
       <c r="C2" t="n">
-        <v>39.5</v>
+        <v>43.9</v>
       </c>
       <c r="D2" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="V2" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>47.9</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C3" t="n">
         <v>34.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>48.8</v>
-      </c>
       <c r="D3" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>45</v>
-      </c>
-      <c r="N3" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>83</v>
-      </c>
-      <c r="S3" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>39.1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>83</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="B27" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D28" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB4" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D29" t="n">
         <v>20</v>
       </c>
-      <c r="AC4" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
         <v>17.3</v>
       </c>
-      <c r="AD4" t="n">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D31" t="n">
         <v>16.8</v>
       </c>
-      <c r="AE4" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D32" t="n">
         <v>13</v>
       </c>
     </row>
